--- a/Test_Input_Single2.xlsx
+++ b/Test_Input_Single2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20379"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FE9AE-FEC5-48D0-A80A-337CD2F26586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A80303-738E-4C9C-A605-1B17384977C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="36Cl Cronus" sheetId="3" r:id="rId1"/>
@@ -758,42 +758,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" customWidth="1"/>
+    <col min="12" max="12" width="16.1328125" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.86328125" customWidth="1"/>
+    <col min="19" max="35" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1444,13 +1444,13 @@
       <c r="BZ3" s="18"/>
       <c r="CA3" s="18"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -1466,21 +1466,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="9">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>27</v>
@@ -1550,13 +1550,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>28</v>

--- a/Test_Input_Single2.xlsx
+++ b/Test_Input_Single2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20379"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A80303-738E-4C9C-A605-1B17384977C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EEBC83-6FD6-4D35-9A09-8598FDF25FBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="36Cl Cronus" sheetId="3" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <v>273141</v>
+        <v>216620</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
